--- a/Practice/CountififsAndSumififsexercises.xlsx
+++ b/Practice/CountififsAndSumififsexercises.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhiradadiya/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhiradadiya/Documents/GitHub/Tops-DA/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837DA6C7-39BC-0445-90E2-19149BBC773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532407C8-0C0E-6143-BF0D-D85C149259A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{836A5AFF-71EB-7B4C-B7A3-0ADF9AF489BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{836A5AFF-71EB-7B4C-B7A3-0ADF9AF489BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,14 +384,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -408,14 +407,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B19713-2EAA-C642-8076-4B7FD026FB3C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,976 +767,908 @@
     <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>100001</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>41306</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>100002</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>41306</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>100003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>41307</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>100004</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>41308</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
         <f>COUNTIF(G1:G25,G2)</f>
         <v>4</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>100005</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>41308</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
         <f>COUNTIF(D1:D25,D16)</f>
         <v>5</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>100006</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>41308</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
         <f>COUNTIF(F1:F25,F4)</f>
         <v>8</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>100007</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>41308</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
         <f>COUNTIF(C1:C25,C3)</f>
         <v>6</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>100008</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>41309</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="8">
+      <c r="N9" s="7"/>
+      <c r="P9" s="7">
         <f>COUNTIF(E1:E25,"&lt;20")</f>
         <v>9</v>
       </c>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>100009</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>41309</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>100010</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>41309</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>15</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>100011</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>41309</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
         <f>SUMIF(D1:D25,D11,E1:E25)</f>
         <v>105</v>
       </c>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>100012</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>41309</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>14</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
         <f>SUMIF(D1:D25,D7,E1:E25)</f>
         <v>164</v>
       </c>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>100013</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>41310</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>25</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
         <f>SUMIF(F1:F25,F2,E1:E25)</f>
         <v>156</v>
       </c>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>100014</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>41310</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>30</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>100015</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>41310</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>15</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="4"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>100016</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>41310</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>15</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>100017</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>41311</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>25</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
         <f>COUNTIFS(D1:D25,D12,G1:G25,G2)</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>100018</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>41312</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>30</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8">
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
         <f>COUNTIFS(C1:C25,C3,F1:F25,F7)</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>100019</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>41313</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>13</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8">
-        <f>COUNTIFS(G1:G25,G2,B1:B25,"2/3/2013")</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
+        <f>COUNTIFS(G1:G25,G2,B1:B25,"3/2/2013")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>100020</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>41313</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>25</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8">
-        <f>COUNTIFS(B1:B25,"&gt;=2/3/2013",B1:B25,"&lt;=2/6/2013")</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7">
+        <f>COUNTIFS(B1:B25,"&gt;=3/2/2013",B1:B25,"&lt;=6/2/2013")</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>100021</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>41313</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>30</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="4"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>100022</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>41313</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>15</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8">
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
         <f>SUMIF(D2:D25,D12,G2:G25)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>100023</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>41313</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>25</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8" t="s">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
         <f>SUMIFS(E2:E25,G2:G25,G22,F2:F25,F10)</f>
         <v>75</v>
       </c>
-      <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>100024</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>41314</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>34</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8" t="s">
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="4">
-        <f>SUMIFS(E2:E24, B2:B24, "&gt;=2/3/2013", B2:B24, "&lt;=2/6/2013")</f>
-        <v>0</v>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25">
+        <f>SUMIFS(E2:E25, B2:B25, "&gt;=3/2/2013", B2:B25, "&lt;=6/2/2013")</f>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8" t="s">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="4">
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28">
         <f>SUMIF(G2:G25,G5,E2:E25)+SUMIF(G2:G25,G7,E2:E25)+SUMIF(G2:G25,G15,E2:E25)</f>
         <v>386</v>
       </c>
@@ -1751,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBB711-5E7D-A94A-9E86-0F4BACA3FEE6}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1761,22 +1692,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1884,22 +1815,22 @@
       <c r="C6" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1985,13 +1916,13 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -2011,7 +1942,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>41395</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2023,12 +1954,12 @@
       <c r="D16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>41395</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2040,12 +1971,12 @@
       <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>41395</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2057,12 +1988,12 @@
       <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>41395</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2074,12 +2005,12 @@
       <c r="D19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>41395</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2091,12 +2022,12 @@
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>41395</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2108,12 +2039,12 @@
       <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>41395</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2125,12 +2056,12 @@
       <c r="D22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>41395</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2142,12 +2073,12 @@
       <c r="D23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>41396</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2159,12 +2090,12 @@
       <c r="D24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>41396</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2176,12 +2107,12 @@
       <c r="D25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>41396</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2193,12 +2124,12 @@
       <c r="D26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>41396</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2210,12 +2141,12 @@
       <c r="D27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>41396</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2227,12 +2158,12 @@
       <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="12">
         <v>41396</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2244,12 +2175,12 @@
       <c r="D29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="12">
         <v>41396</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2261,12 +2192,12 @@
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>41396</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2278,12 +2209,12 @@
       <c r="D31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>41396</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2295,12 +2226,12 @@
       <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="A33" s="12">
         <v>41396</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2312,12 +2243,12 @@
       <c r="D33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="A34" s="12">
         <v>41396</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2329,12 +2260,12 @@
       <c r="D34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="A35" s="12">
         <v>41396</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2346,12 +2277,12 @@
       <c r="D35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="A36" s="12">
         <v>41396</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2363,12 +2294,12 @@
       <c r="D36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="A37" s="12">
         <v>41396</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2380,12 +2311,12 @@
       <c r="D37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>41397</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2397,12 +2328,12 @@
       <c r="D38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>41397</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2414,12 +2345,12 @@
       <c r="D39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="A40" s="12">
         <v>41397</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2431,12 +2362,12 @@
       <c r="D40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="A41" s="12">
         <v>41397</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2448,12 +2379,12 @@
       <c r="D41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="12">
         <v>41397</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2465,12 +2396,12 @@
       <c r="D42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="A43" s="12">
         <v>41397</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2482,12 +2413,12 @@
       <c r="D43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="12">
         <v>41397</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2499,12 +2430,12 @@
       <c r="D44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="12">
         <v>41397</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2516,12 +2447,12 @@
       <c r="D45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="A46" s="12">
         <v>41398</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2533,12 +2464,12 @@
       <c r="D46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="12">
         <v>41398</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2550,12 +2481,12 @@
       <c r="D47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="A48" s="12">
         <v>41398</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2567,12 +2498,12 @@
       <c r="D48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="A49" s="12">
         <v>41398</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2584,12 +2515,12 @@
       <c r="D49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+      <c r="A50" s="12">
         <v>41398</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2601,12 +2532,12 @@
       <c r="D50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+      <c r="A51" s="12">
         <v>41398</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2618,12 +2549,12 @@
       <c r="D51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+      <c r="A52" s="12">
         <v>41398</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2635,12 +2566,12 @@
       <c r="D52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+      <c r="A53" s="12">
         <v>41399</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2652,12 +2583,12 @@
       <c r="D53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+      <c r="A54" s="12">
         <v>41399</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2669,12 +2600,12 @@
       <c r="D54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+      <c r="A55" s="12">
         <v>41399</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2686,12 +2617,12 @@
       <c r="D55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+      <c r="A56" s="12">
         <v>41399</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2703,12 +2634,12 @@
       <c r="D56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+      <c r="A57" s="12">
         <v>41399</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2720,12 +2651,12 @@
       <c r="D57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+      <c r="A58" s="12">
         <v>41399</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2737,12 +2668,12 @@
       <c r="D58" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+      <c r="A59" s="12">
         <v>41399</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2754,12 +2685,12 @@
       <c r="D59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+      <c r="A60" s="12">
         <v>41399</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2771,12 +2702,12 @@
       <c r="D60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+      <c r="A61" s="12">
         <v>41399</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2788,12 +2719,12 @@
       <c r="D61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+      <c r="A62" s="12">
         <v>41399</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2805,12 +2736,12 @@
       <c r="D62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
+      <c r="A63" s="12">
         <v>41399</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2822,12 +2753,12 @@
       <c r="D63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
+      <c r="A64" s="12">
         <v>41399</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2839,12 +2770,12 @@
       <c r="D64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
+      <c r="A65" s="12">
         <v>41399</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2856,12 +2787,12 @@
       <c r="D65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="15">
+      <c r="A66" s="12">
         <v>41400</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2873,12 +2804,12 @@
       <c r="D66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="15">
+      <c r="A67" s="12">
         <v>41400</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2890,12 +2821,12 @@
       <c r="D67" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="15">
+      <c r="A68" s="12">
         <v>41400</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2907,12 +2838,12 @@
       <c r="D68" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="15">
+      <c r="A69" s="12">
         <v>41400</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2924,12 +2855,12 @@
       <c r="D69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="15">
+      <c r="A70" s="12">
         <v>41400</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -2941,12 +2872,12 @@
       <c r="D70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="15">
+      <c r="A71" s="12">
         <v>41400</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -2958,12 +2889,12 @@
       <c r="D71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="15">
+      <c r="A72" s="12">
         <v>41400</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2975,12 +2906,12 @@
       <c r="D72" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="15">
+      <c r="A73" s="12">
         <v>41400</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2992,12 +2923,12 @@
       <c r="D73" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="15">
+      <c r="A74" s="12">
         <v>41400</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3009,12 +2940,12 @@
       <c r="D74" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="15">
+      <c r="A75" s="12">
         <v>41401</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3026,12 +2957,12 @@
       <c r="D75" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="15">
+      <c r="A76" s="12">
         <v>41401</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -3043,12 +2974,12 @@
       <c r="D76" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="15">
+      <c r="A77" s="12">
         <v>41401</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -3060,12 +2991,12 @@
       <c r="D77" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="15">
+      <c r="A78" s="12">
         <v>41401</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -3077,12 +3008,12 @@
       <c r="D78" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="15">
+      <c r="A79" s="12">
         <v>41401</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -3094,12 +3025,12 @@
       <c r="D79" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="15">
+      <c r="A80" s="12">
         <v>41401</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -3111,12 +3042,12 @@
       <c r="D80" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="15">
+      <c r="A81" s="12">
         <v>41402</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -3128,12 +3059,12 @@
       <c r="D81" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="15">
+      <c r="A82" s="12">
         <v>41402</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3145,12 +3076,12 @@
       <c r="D82" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="15">
+      <c r="A83" s="12">
         <v>41402</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -3162,12 +3093,12 @@
       <c r="D83" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="15">
+      <c r="A84" s="12">
         <v>41402</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -3179,12 +3110,12 @@
       <c r="D84" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="15">
+      <c r="A85" s="12">
         <v>41402</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -3196,12 +3127,12 @@
       <c r="D85" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="15">
+      <c r="A86" s="12">
         <v>41402</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -3213,12 +3144,12 @@
       <c r="D86" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="15">
+      <c r="A87" s="12">
         <v>41402</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3230,12 +3161,12 @@
       <c r="D87" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="15">
+      <c r="A88" s="12">
         <v>41402</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -3247,12 +3178,12 @@
       <c r="D88" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="15">
+      <c r="A89" s="12">
         <v>41402</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -3264,12 +3195,12 @@
       <c r="D89" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="15">
+      <c r="A90" s="12">
         <v>41402</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -3281,12 +3212,12 @@
       <c r="D90" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E90" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="15">
+      <c r="A91" s="12">
         <v>41402</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -3298,12 +3229,12 @@
       <c r="D91" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E91" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="15">
+      <c r="A92" s="12">
         <v>41402</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -3315,12 +3246,12 @@
       <c r="D92" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E92" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="15">
+      <c r="A93" s="12">
         <v>41402</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -3332,12 +3263,12 @@
       <c r="D93" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E93" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="15">
+      <c r="A94" s="12">
         <v>41403</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -3349,12 +3280,12 @@
       <c r="D94" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="15">
+      <c r="A95" s="12">
         <v>41403</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -3366,12 +3297,12 @@
       <c r="D95" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="15">
+      <c r="A96" s="12">
         <v>41403</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -3383,12 +3314,12 @@
       <c r="D96" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="15">
+      <c r="A97" s="12">
         <v>41403</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -3400,12 +3331,12 @@
       <c r="D97" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="15">
+      <c r="A98" s="12">
         <v>41403</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -3417,12 +3348,12 @@
       <c r="D98" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="15">
+      <c r="A99" s="12">
         <v>41403</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -3434,12 +3365,12 @@
       <c r="D99" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E99" s="16">
+      <c r="E99" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="15">
+      <c r="A100" s="12">
         <v>41403</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -3451,12 +3382,12 @@
       <c r="D100" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="15">
+      <c r="A101" s="12">
         <v>41403</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -3468,12 +3399,12 @@
       <c r="D101" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E101" s="16">
+      <c r="E101" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="15">
+      <c r="A102" s="12">
         <v>41403</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -3485,12 +3416,12 @@
       <c r="D102" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="15">
+      <c r="A103" s="12">
         <v>41403</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -3502,12 +3433,12 @@
       <c r="D103" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E103" s="16">
+      <c r="E103" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="15">
+      <c r="A104" s="12">
         <v>41404</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -3519,12 +3450,12 @@
       <c r="D104" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E104" s="16">
+      <c r="E104" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="15">
+      <c r="A105" s="12">
         <v>41404</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -3536,12 +3467,12 @@
       <c r="D105" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="15">
+      <c r="A106" s="12">
         <v>41404</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -3553,12 +3484,12 @@
       <c r="D106" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="15">
+      <c r="A107" s="12">
         <v>41404</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -3570,12 +3501,12 @@
       <c r="D107" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E107" s="16">
+      <c r="E107" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="15">
+      <c r="A108" s="12">
         <v>41404</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -3587,12 +3518,12 @@
       <c r="D108" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="15">
+      <c r="A109" s="12">
         <v>41404</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -3604,12 +3535,12 @@
       <c r="D109" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E109" s="16">
+      <c r="E109" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="15">
+      <c r="A110" s="12">
         <v>41404</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -3621,12 +3552,12 @@
       <c r="D110" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E110" s="16">
+      <c r="E110" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="15">
+      <c r="A111" s="12">
         <v>41404</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -3638,12 +3569,12 @@
       <c r="D111" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E111" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="15">
+      <c r="A112" s="12">
         <v>41404</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -3655,12 +3586,12 @@
       <c r="D112" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="15">
+      <c r="A113" s="12">
         <v>41404</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -3672,12 +3603,12 @@
       <c r="D113" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="15">
+      <c r="A114" s="12">
         <v>41404</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -3689,12 +3620,12 @@
       <c r="D114" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="15">
+      <c r="A115" s="12">
         <v>41405</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -3706,12 +3637,12 @@
       <c r="D115" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E115" s="16">
+      <c r="E115" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="15">
+      <c r="A116" s="12">
         <v>41405</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -3723,12 +3654,12 @@
       <c r="D116" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E116" s="16">
+      <c r="E116" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="15">
+      <c r="A117" s="12">
         <v>41405</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -3740,12 +3671,12 @@
       <c r="D117" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E117" s="16">
+      <c r="E117" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="15">
+      <c r="A118" s="12">
         <v>41405</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -3757,12 +3688,12 @@
       <c r="D118" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E118" s="16">
+      <c r="E118" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="15">
+      <c r="A119" s="12">
         <v>41405</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -3774,12 +3705,12 @@
       <c r="D119" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E119" s="16">
+      <c r="E119" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="15">
+      <c r="A120" s="12">
         <v>41405</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -3791,12 +3722,12 @@
       <c r="D120" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E120" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="15">
+      <c r="A121" s="12">
         <v>41405</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -3808,12 +3739,12 @@
       <c r="D121" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E121" s="16">
+      <c r="E121" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="15">
+      <c r="A122" s="12">
         <v>41405</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -3825,12 +3756,12 @@
       <c r="D122" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E122" s="16">
+      <c r="E122" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="15">
+      <c r="A123" s="12">
         <v>41405</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -3842,12 +3773,12 @@
       <c r="D123" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E123" s="16">
+      <c r="E123" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="15">
+      <c r="A124" s="12">
         <v>41405</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -3859,12 +3790,12 @@
       <c r="D124" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="15">
+      <c r="A125" s="12">
         <v>41406</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -3876,12 +3807,12 @@
       <c r="D125" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="15">
+      <c r="A126" s="12">
         <v>41406</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -3893,12 +3824,12 @@
       <c r="D126" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E126" s="16">
+      <c r="E126" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="15">
+      <c r="A127" s="12">
         <v>41406</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -3910,12 +3841,12 @@
       <c r="D127" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E127" s="16">
+      <c r="E127" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="15">
+      <c r="A128" s="12">
         <v>41406</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -3927,12 +3858,12 @@
       <c r="D128" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E128" s="16">
+      <c r="E128" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="15">
+      <c r="A129" s="12">
         <v>41406</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -3944,12 +3875,12 @@
       <c r="D129" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E129" s="16">
+      <c r="E129" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="15">
+      <c r="A130" s="12">
         <v>41406</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -3961,12 +3892,12 @@
       <c r="D130" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E130" s="16">
+      <c r="E130" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="15">
+      <c r="A131" s="12">
         <v>41406</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -3978,12 +3909,12 @@
       <c r="D131" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E131" s="16">
+      <c r="E131" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="15">
+      <c r="A132" s="12">
         <v>41406</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -3995,12 +3926,12 @@
       <c r="D132" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E132" s="16">
+      <c r="E132" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="15">
+      <c r="A133" s="12">
         <v>41407</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -4012,12 +3943,12 @@
       <c r="D133" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E133" s="16">
+      <c r="E133" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="15">
+      <c r="A134" s="12">
         <v>41407</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -4029,12 +3960,12 @@
       <c r="D134" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E134" s="16">
+      <c r="E134" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="15">
+      <c r="A135" s="12">
         <v>41407</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -4046,12 +3977,12 @@
       <c r="D135" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E135" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="15">
+      <c r="A136" s="12">
         <v>41407</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -4063,12 +3994,12 @@
       <c r="D136" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E136" s="16">
+      <c r="E136" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="15">
+      <c r="A137" s="12">
         <v>41407</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -4080,12 +4011,12 @@
       <c r="D137" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E137" s="16">
+      <c r="E137" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="15">
+      <c r="A138" s="12">
         <v>41407</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -4097,12 +4028,12 @@
       <c r="D138" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E138" s="16">
+      <c r="E138" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="15">
+      <c r="A139" s="12">
         <v>41407</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -4114,12 +4045,12 @@
       <c r="D139" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E139" s="16">
+      <c r="E139" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="15">
+      <c r="A140" s="12">
         <v>41407</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -4131,12 +4062,12 @@
       <c r="D140" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E140" s="16">
+      <c r="E140" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="15">
+      <c r="A141" s="12">
         <v>41407</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -4148,12 +4079,12 @@
       <c r="D141" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E141" s="16">
+      <c r="E141" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="15">
+      <c r="A142" s="12">
         <v>41407</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -4165,12 +4096,12 @@
       <c r="D142" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E142" s="16">
+      <c r="E142" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="15">
+      <c r="A143" s="12">
         <v>41407</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -4182,12 +4113,12 @@
       <c r="D143" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E143" s="16">
+      <c r="E143" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="15">
+      <c r="A144" s="12">
         <v>41407</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -4199,12 +4130,12 @@
       <c r="D144" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E144" s="16">
+      <c r="E144" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="15">
+      <c r="A145" s="12">
         <v>41407</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -4216,12 +4147,12 @@
       <c r="D145" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E145" s="16">
+      <c r="E145" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="15">
+      <c r="A146" s="12">
         <v>41407</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -4233,12 +4164,12 @@
       <c r="D146" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E146" s="16">
+      <c r="E146" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="15">
+      <c r="A147" s="12">
         <v>41408</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -4250,12 +4181,12 @@
       <c r="D147" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E147" s="16">
+      <c r="E147" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="15">
+      <c r="A148" s="12">
         <v>41408</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -4267,12 +4198,12 @@
       <c r="D148" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E148" s="16">
+      <c r="E148" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="15">
+      <c r="A149" s="12">
         <v>41408</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -4284,12 +4215,12 @@
       <c r="D149" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E149" s="16">
+      <c r="E149" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="15">
+      <c r="A150" s="12">
         <v>41408</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -4301,12 +4232,12 @@
       <c r="D150" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E150" s="16">
+      <c r="E150" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="15">
+      <c r="A151" s="12">
         <v>41408</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -4318,12 +4249,12 @@
       <c r="D151" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E151" s="16">
+      <c r="E151" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="15">
+      <c r="A152" s="12">
         <v>41408</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -4335,12 +4266,12 @@
       <c r="D152" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E152" s="16">
+      <c r="E152" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="15">
+      <c r="A153" s="12">
         <v>41408</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -4352,12 +4283,12 @@
       <c r="D153" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E153" s="16">
+      <c r="E153" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="15">
+      <c r="A154" s="12">
         <v>41408</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -4369,12 +4300,12 @@
       <c r="D154" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E154" s="16">
+      <c r="E154" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="15">
+      <c r="A155" s="12">
         <v>41408</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -4386,12 +4317,12 @@
       <c r="D155" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E155" s="16">
+      <c r="E155" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="15">
+      <c r="A156" s="12">
         <v>41409</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -4403,12 +4334,12 @@
       <c r="D156" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E156" s="16">
+      <c r="E156" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="15">
+      <c r="A157" s="12">
         <v>41409</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -4420,12 +4351,12 @@
       <c r="D157" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E157" s="16">
+      <c r="E157" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="15">
+      <c r="A158" s="12">
         <v>41409</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -4437,12 +4368,12 @@
       <c r="D158" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E158" s="16">
+      <c r="E158" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="15">
+      <c r="A159" s="12">
         <v>41409</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -4454,12 +4385,12 @@
       <c r="D159" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E159" s="16">
+      <c r="E159" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="15">
+      <c r="A160" s="12">
         <v>41409</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -4471,12 +4402,12 @@
       <c r="D160" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E160" s="16">
+      <c r="E160" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="15">
+      <c r="A161" s="12">
         <v>41409</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -4488,12 +4419,12 @@
       <c r="D161" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E161" s="16">
+      <c r="E161" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="15">
+      <c r="A162" s="12">
         <v>41409</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -4505,12 +4436,12 @@
       <c r="D162" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E162" s="16">
+      <c r="E162" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="15">
+      <c r="A163" s="12">
         <v>41409</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -4522,12 +4453,12 @@
       <c r="D163" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E163" s="16">
+      <c r="E163" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="15">
+      <c r="A164" s="12">
         <v>41409</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -4539,12 +4470,12 @@
       <c r="D164" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E164" s="16">
+      <c r="E164" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="15">
+      <c r="A165" s="12">
         <v>41410</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -4556,12 +4487,12 @@
       <c r="D165" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E165" s="16">
+      <c r="E165" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="15">
+      <c r="A166" s="12">
         <v>41410</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -4573,12 +4504,12 @@
       <c r="D166" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E166" s="16">
+      <c r="E166" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="15">
+      <c r="A167" s="12">
         <v>41410</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -4590,12 +4521,12 @@
       <c r="D167" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E167" s="16">
+      <c r="E167" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="15">
+      <c r="A168" s="12">
         <v>41410</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -4607,12 +4538,12 @@
       <c r="D168" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E168" s="16">
+      <c r="E168" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="15">
+      <c r="A169" s="12">
         <v>41410</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -4624,12 +4555,12 @@
       <c r="D169" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E169" s="16">
+      <c r="E169" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="15">
+      <c r="A170" s="12">
         <v>41410</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -4641,12 +4572,12 @@
       <c r="D170" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E170" s="16">
+      <c r="E170" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="15">
+      <c r="A171" s="12">
         <v>41410</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -4658,12 +4589,12 @@
       <c r="D171" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E171" s="16">
+      <c r="E171" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="15">
+      <c r="A172" s="12">
         <v>41410</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -4675,12 +4606,12 @@
       <c r="D172" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E172" s="16">
+      <c r="E172" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="15">
+      <c r="A173" s="12">
         <v>41410</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -4692,12 +4623,12 @@
       <c r="D173" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E173" s="16">
+      <c r="E173" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="15">
+      <c r="A174" s="12">
         <v>41410</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -4709,12 +4640,12 @@
       <c r="D174" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E174" s="16">
+      <c r="E174" s="13">
         <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="15">
+      <c r="A175" s="12">
         <v>41410</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -4726,12 +4657,12 @@
       <c r="D175" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E175" s="16">
+      <c r="E175" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="15">
+      <c r="A176" s="12">
         <v>41410</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -4743,12 +4674,12 @@
       <c r="D176" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E176" s="16">
+      <c r="E176" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="15">
+      <c r="A177" s="12">
         <v>41410</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -4760,12 +4691,12 @@
       <c r="D177" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E177" s="16">
+      <c r="E177" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="15">
+      <c r="A178" s="12">
         <v>41411</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -4777,12 +4708,12 @@
       <c r="D178" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E178" s="16">
+      <c r="E178" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="15">
+      <c r="A179" s="12">
         <v>41411</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -4794,12 +4725,12 @@
       <c r="D179" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E179" s="16">
+      <c r="E179" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="15">
+      <c r="A180" s="12">
         <v>41411</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -4811,12 +4742,12 @@
       <c r="D180" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E180" s="16">
+      <c r="E180" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="15">
+      <c r="A181" s="12">
         <v>41411</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -4828,12 +4759,12 @@
       <c r="D181" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E181" s="16">
+      <c r="E181" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="15">
+      <c r="A182" s="12">
         <v>41411</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -4845,12 +4776,12 @@
       <c r="D182" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E182" s="16">
+      <c r="E182" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="15">
+      <c r="A183" s="12">
         <v>41411</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -4862,12 +4793,12 @@
       <c r="D183" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E183" s="16">
+      <c r="E183" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="15">
+      <c r="A184" s="12">
         <v>41411</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -4879,12 +4810,12 @@
       <c r="D184" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E184" s="16">
+      <c r="E184" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="15">
+      <c r="A185" s="12">
         <v>41411</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -4896,12 +4827,12 @@
       <c r="D185" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E185" s="16">
+      <c r="E185" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="15">
+      <c r="A186" s="12">
         <v>41412</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -4913,12 +4844,12 @@
       <c r="D186" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E186" s="16">
+      <c r="E186" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="15">
+      <c r="A187" s="12">
         <v>41412</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -4930,12 +4861,12 @@
       <c r="D187" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E187" s="16">
+      <c r="E187" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="15">
+      <c r="A188" s="12">
         <v>41412</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -4947,12 +4878,12 @@
       <c r="D188" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E188" s="16">
+      <c r="E188" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="15">
+      <c r="A189" s="12">
         <v>41412</v>
       </c>
       <c r="B189" s="3" t="s">
@@ -4964,12 +4895,12 @@
       <c r="D189" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E189" s="16">
+      <c r="E189" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="15">
+      <c r="A190" s="12">
         <v>41412</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -4981,12 +4912,12 @@
       <c r="D190" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E190" s="16">
+      <c r="E190" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="15">
+      <c r="A191" s="12">
         <v>41412</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -4998,12 +4929,12 @@
       <c r="D191" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E191" s="16">
+      <c r="E191" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="15">
+      <c r="A192" s="12">
         <v>41412</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -5015,12 +4946,12 @@
       <c r="D192" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E192" s="16">
+      <c r="E192" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="15">
+      <c r="A193" s="12">
         <v>41413</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -5032,12 +4963,12 @@
       <c r="D193" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E193" s="16">
+      <c r="E193" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="15">
+      <c r="A194" s="12">
         <v>41414</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -5049,12 +4980,12 @@
       <c r="D194" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E194" s="16">
+      <c r="E194" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="15">
+      <c r="A195" s="12">
         <v>41414</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -5066,12 +4997,12 @@
       <c r="D195" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E195" s="16">
+      <c r="E195" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="15">
+      <c r="A196" s="12">
         <v>41414</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -5083,12 +5014,12 @@
       <c r="D196" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E196" s="16">
+      <c r="E196" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="15">
+      <c r="A197" s="12">
         <v>41415</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -5100,12 +5031,12 @@
       <c r="D197" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E197" s="16">
+      <c r="E197" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="15">
+      <c r="A198" s="12">
         <v>41415</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -5117,12 +5048,12 @@
       <c r="D198" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E198" s="16">
+      <c r="E198" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="15">
+      <c r="A199" s="12">
         <v>41415</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -5134,12 +5065,12 @@
       <c r="D199" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E199" s="16">
+      <c r="E199" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="15">
+      <c r="A200" s="12">
         <v>41416</v>
       </c>
       <c r="B200" s="3" t="s">
@@ -5151,12 +5082,12 @@
       <c r="D200" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E200" s="16">
+      <c r="E200" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="15">
+      <c r="A201" s="12">
         <v>41417</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -5168,12 +5099,12 @@
       <c r="D201" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E201" s="16">
+      <c r="E201" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="15">
+      <c r="A202" s="12">
         <v>41417</v>
       </c>
       <c r="B202" s="3" t="s">
@@ -5185,12 +5116,12 @@
       <c r="D202" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E202" s="16">
+      <c r="E202" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="15">
+      <c r="A203" s="12">
         <v>41418</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -5202,12 +5133,12 @@
       <c r="D203" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E203" s="16">
+      <c r="E203" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="15">
+      <c r="A204" s="12">
         <v>41418</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -5219,12 +5150,12 @@
       <c r="D204" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E204" s="16">
+      <c r="E204" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="15">
+      <c r="A205" s="12">
         <v>41418</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -5236,12 +5167,12 @@
       <c r="D205" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E205" s="16">
+      <c r="E205" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="15">
+      <c r="A206" s="12">
         <v>41418</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -5253,12 +5184,12 @@
       <c r="D206" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E206" s="16">
+      <c r="E206" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="15">
+      <c r="A207" s="12">
         <v>41418</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -5270,12 +5201,12 @@
       <c r="D207" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E207" s="16">
+      <c r="E207" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="15">
+      <c r="A208" s="12">
         <v>41418</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -5287,12 +5218,12 @@
       <c r="D208" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E208" s="16">
+      <c r="E208" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="15">
+      <c r="A209" s="12">
         <v>41419</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -5304,12 +5235,12 @@
       <c r="D209" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E209" s="16">
+      <c r="E209" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="15">
+      <c r="A210" s="12">
         <v>41419</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -5321,12 +5252,12 @@
       <c r="D210" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E210" s="16">
+      <c r="E210" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="15">
+      <c r="A211" s="12">
         <v>41419</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -5338,12 +5269,12 @@
       <c r="D211" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E211" s="16">
+      <c r="E211" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="15">
+      <c r="A212" s="12">
         <v>41419</v>
       </c>
       <c r="B212" s="3" t="s">
@@ -5355,12 +5286,12 @@
       <c r="D212" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E212" s="16">
+      <c r="E212" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="15">
+      <c r="A213" s="12">
         <v>41420</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -5372,12 +5303,12 @@
       <c r="D213" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E213" s="16">
+      <c r="E213" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="15">
+      <c r="A214" s="12">
         <v>41420</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -5389,12 +5320,12 @@
       <c r="D214" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E214" s="16">
+      <c r="E214" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="15">
+      <c r="A215" s="12">
         <v>41420</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -5406,12 +5337,12 @@
       <c r="D215" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E215" s="16">
+      <c r="E215" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="15">
+      <c r="A216" s="12">
         <v>41421</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -5423,12 +5354,12 @@
       <c r="D216" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E216" s="16">
+      <c r="E216" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="15">
+      <c r="A217" s="12">
         <v>41421</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -5440,12 +5371,12 @@
       <c r="D217" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E217" s="16">
+      <c r="E217" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="15">
+      <c r="A218" s="12">
         <v>41421</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -5457,12 +5388,12 @@
       <c r="D218" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E218" s="16">
+      <c r="E218" s="13">
         <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="15">
+      <c r="A219" s="12">
         <v>41421</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -5474,12 +5405,12 @@
       <c r="D219" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E219" s="16">
+      <c r="E219" s="13">
         <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="15">
+      <c r="A220" s="12">
         <v>41422</v>
       </c>
       <c r="B220" s="3" t="s">
@@ -5491,12 +5422,12 @@
       <c r="D220" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E220" s="16">
+      <c r="E220" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="15">
+      <c r="A221" s="12">
         <v>41422</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -5508,12 +5439,12 @@
       <c r="D221" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E221" s="16">
+      <c r="E221" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="15">
+      <c r="A222" s="12">
         <v>41422</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -5525,12 +5456,12 @@
       <c r="D222" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E222" s="16">
+      <c r="E222" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="15">
+      <c r="A223" s="12">
         <v>41422</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -5542,12 +5473,12 @@
       <c r="D223" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E223" s="16">
+      <c r="E223" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="15">
+      <c r="A224" s="12">
         <v>41422</v>
       </c>
       <c r="B224" s="3" t="s">
@@ -5559,12 +5490,12 @@
       <c r="D224" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E224" s="16">
+      <c r="E224" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="15">
+      <c r="A225" s="12">
         <v>41422</v>
       </c>
       <c r="B225" s="3" t="s">
@@ -5576,12 +5507,12 @@
       <c r="D225" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E225" s="16">
+      <c r="E225" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="15">
+      <c r="A226" s="12">
         <v>41422</v>
       </c>
       <c r="B226" s="3" t="s">
@@ -5593,12 +5524,12 @@
       <c r="D226" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E226" s="16">
+      <c r="E226" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="15">
+      <c r="A227" s="12">
         <v>41423</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -5610,12 +5541,12 @@
       <c r="D227" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E227" s="16">
+      <c r="E227" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="15">
+      <c r="A228" s="12">
         <v>41423</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -5627,12 +5558,12 @@
       <c r="D228" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E228" s="16">
+      <c r="E228" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="15">
+      <c r="A229" s="12">
         <v>41424</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -5644,12 +5575,12 @@
       <c r="D229" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E229" s="16">
+      <c r="E229" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="15">
+      <c r="A230" s="12">
         <v>41424</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -5661,12 +5592,12 @@
       <c r="D230" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E230" s="16">
+      <c r="E230" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="15">
+      <c r="A231" s="12">
         <v>41424</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -5678,12 +5609,12 @@
       <c r="D231" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E231" s="16">
+      <c r="E231" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="15">
+      <c r="A232" s="12">
         <v>41424</v>
       </c>
       <c r="B232" s="3" t="s">
@@ -5695,12 +5626,12 @@
       <c r="D232" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E232" s="16">
+      <c r="E232" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="15">
+      <c r="A233" s="12">
         <v>41424</v>
       </c>
       <c r="B233" s="3" t="s">
@@ -5712,12 +5643,12 @@
       <c r="D233" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E233" s="16">
+      <c r="E233" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="15">
+      <c r="A234" s="12">
         <v>41425</v>
       </c>
       <c r="B234" s="3" t="s">
@@ -5729,12 +5660,12 @@
       <c r="D234" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E234" s="16">
+      <c r="E234" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="15">
+      <c r="A235" s="12">
         <v>41425</v>
       </c>
       <c r="B235" s="3" t="s">
@@ -5746,12 +5677,12 @@
       <c r="D235" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E235" s="16">
+      <c r="E235" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="15">
+      <c r="A236" s="12">
         <v>41425</v>
       </c>
       <c r="B236" s="3" t="s">
@@ -5763,12 +5694,12 @@
       <c r="D236" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E236" s="16">
+      <c r="E236" s="13">
         <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="15">
+      <c r="A237" s="12">
         <v>41425</v>
       </c>
       <c r="B237" s="3" t="s">
@@ -5780,12 +5711,12 @@
       <c r="D237" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E237" s="16">
+      <c r="E237" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="15">
+      <c r="A238" s="12">
         <v>41425</v>
       </c>
       <c r="B238" s="3" t="s">
@@ -5797,12 +5728,12 @@
       <c r="D238" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E238" s="16">
+      <c r="E238" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="15">
+      <c r="A239" s="12">
         <v>41425</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -5814,12 +5745,12 @@
       <c r="D239" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E239" s="16">
+      <c r="E239" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="15">
+      <c r="A240" s="12">
         <v>41425</v>
       </c>
       <c r="B240" s="3" t="s">
@@ -5831,12 +5762,12 @@
       <c r="D240" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E240" s="16">
+      <c r="E240" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="15">
+      <c r="A241" s="12">
         <v>41425</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -5848,7 +5779,7 @@
       <c r="D241" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E241" s="16">
+      <c r="E241" s="13">
         <v>40</v>
       </c>
     </row>
